--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>964.2212315298522</v>
+        <v>5.072284127285112</v>
       </c>
       <c r="R2">
-        <v>8677.991083768669</v>
+        <v>45.650557145566</v>
       </c>
       <c r="S2">
-        <v>0.006375343937217643</v>
+        <v>5.036265665017413E-05</v>
       </c>
       <c r="T2">
-        <v>0.006375343937217642</v>
+        <v>5.036265665017411E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>3.134166729417555</v>
+        <v>2.748520187690889</v>
       </c>
       <c r="R3">
-        <v>28.207500564758</v>
+        <v>24.736681689218</v>
       </c>
       <c r="S3">
-        <v>2.072282812619527E-05</v>
+        <v>2.729002852268013E-05</v>
       </c>
       <c r="T3">
-        <v>2.072282812619527E-05</v>
+        <v>2.729002852268013E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>80.19368122897909</v>
+        <v>93.42103573567134</v>
       </c>
       <c r="R4">
-        <v>721.7431310608119</v>
+        <v>840.7893216210421</v>
       </c>
       <c r="S4">
-        <v>0.0005302333973865701</v>
+        <v>0.000927576497805049</v>
       </c>
       <c r="T4">
-        <v>0.0005302333973865701</v>
+        <v>0.0009275764978050488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>2168.672334773522</v>
+        <v>1862.43168139764</v>
       </c>
       <c r="R5">
-        <v>19518.0510129617</v>
+        <v>16761.88513257876</v>
       </c>
       <c r="S5">
-        <v>0.01433906614913815</v>
+        <v>0.01849206490623776</v>
       </c>
       <c r="T5">
-        <v>0.01433906614913815</v>
+        <v>0.01849206490623775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>39968.41888228484</v>
+        <v>239.7546372344089</v>
       </c>
       <c r="R6">
-        <v>359715.7699405636</v>
+        <v>2157.79173510968</v>
       </c>
       <c r="S6">
-        <v>0.2642675857666602</v>
+        <v>0.002380521313932474</v>
       </c>
       <c r="T6">
-        <v>0.2642675857666601</v>
+        <v>0.002380521313932474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>129.9159203220711</v>
@@ -883,10 +883,10 @@
         <v>1169.24328289864</v>
       </c>
       <c r="S7">
-        <v>0.0008589923638781892</v>
+        <v>0.001289933829490319</v>
       </c>
       <c r="T7">
-        <v>0.0008589923638781891</v>
+        <v>0.001289933829490319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>3324.148585679662</v>
+        <v>4415.787044022906</v>
       </c>
       <c r="R8">
-        <v>29917.33727111696</v>
+        <v>39742.08339620616</v>
       </c>
       <c r="S8">
-        <v>0.02197897104847905</v>
+        <v>0.0438443038989311</v>
       </c>
       <c r="T8">
-        <v>0.02197897104847905</v>
+        <v>0.0438443038989311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>89894.72691565314</v>
+        <v>88032.65372012198</v>
       </c>
       <c r="R9">
-        <v>809052.5422408782</v>
+        <v>792293.8834810978</v>
       </c>
       <c r="S9">
-        <v>0.5943758377112665</v>
+        <v>0.8740753084908897</v>
       </c>
       <c r="T9">
-        <v>0.5943758377112665</v>
+        <v>0.8740753084908895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>2020.857202986512</v>
+        <v>13.290202264929</v>
       </c>
       <c r="R10">
-        <v>18187.71482687861</v>
+        <v>119.611820384361</v>
       </c>
       <c r="S10">
-        <v>0.01336172581120331</v>
+        <v>0.000131958280861967</v>
       </c>
       <c r="T10">
-        <v>0.0133617258112033</v>
+        <v>0.000131958280861967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>6.568724275501556</v>
+        <v>7.201566061167</v>
       </c>
       <c r="R11">
-        <v>59.118518479514</v>
+        <v>64.814094550503</v>
       </c>
       <c r="S11">
-        <v>4.343181327653297E-05</v>
+        <v>7.150427495397948E-05</v>
       </c>
       <c r="T11">
-        <v>4.343181327653296E-05</v>
+        <v>7.150427495397948E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>168.0734390057551</v>
+        <v>244.778176768023</v>
       </c>
       <c r="R12">
-        <v>1512.660951051796</v>
+        <v>2203.003590912207</v>
       </c>
       <c r="S12">
-        <v>0.001111286440636197</v>
+        <v>0.00243039998601613</v>
       </c>
       <c r="T12">
-        <v>0.001111286440636197</v>
+        <v>0.00243039998601613</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>4545.198721346519</v>
+        <v>4879.871302405677</v>
       </c>
       <c r="R13">
-        <v>40906.78849211867</v>
+        <v>43918.84172165109</v>
       </c>
       <c r="S13">
-        <v>0.03005244456773693</v>
+        <v>0.04845219170157911</v>
       </c>
       <c r="T13">
-        <v>0.03005244456773692</v>
+        <v>0.04845219170157911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>2388.831490942103</v>
+        <v>2.036111179979889</v>
       </c>
       <c r="R14">
-        <v>21499.48341847893</v>
+        <v>18.325000619819</v>
       </c>
       <c r="S14">
-        <v>0.01579473866038887</v>
+        <v>2.021652685173881E-05</v>
       </c>
       <c r="T14">
-        <v>0.01579473866038886</v>
+        <v>2.021652685173881E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>7.76481157671322</v>
+        <v>1.103308202404111</v>
       </c>
       <c r="R15">
-        <v>69.88330419041898</v>
+        <v>9.929773821637001</v>
       </c>
       <c r="S15">
-        <v>5.134023478273034E-05</v>
+        <v>1.095473573298031E-05</v>
       </c>
       <c r="T15">
-        <v>5.134023478273034E-05</v>
+        <v>1.095473573298031E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>198.6776320932184</v>
+        <v>37.50097796838367</v>
       </c>
       <c r="R16">
-        <v>1788.098688838965</v>
+        <v>337.508801715453</v>
       </c>
       <c r="S16">
-        <v>0.001313638608866333</v>
+        <v>0.0003723468224715422</v>
       </c>
       <c r="T16">
-        <v>0.001313638608866333</v>
+        <v>0.0003723468224715422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>5372.825859291956</v>
+        <v>747.6154476528053</v>
       </c>
       <c r="R17">
-        <v>48355.4327336276</v>
+        <v>6728.539028875247</v>
       </c>
       <c r="S17">
-        <v>0.03552464066095672</v>
+        <v>0.007423066049073487</v>
       </c>
       <c r="T17">
-        <v>0.03552464066095672</v>
+        <v>0.007423066049073486</v>
       </c>
     </row>
   </sheetData>
